--- a/biology/Botanique/Aechmea_mertensii/Aechmea_mertensii.xlsx
+++ b/biology/Botanique/Aechmea_mertensii/Aechmea_mertensii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aechmea mertensii est une espèce de plantes à fleurs de la famille des Bromeliaceae qui se rencontre largement en Amérique du Sud.
 </t>
@@ -511,24 +523,26 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Aechmea humilis Mez[2] ;
-Aechmea mucroniflora Hook.[2] ;
-Aechmea spicata Mart. ex Schult. &amp; Schult.f.[2] ;
-Aechmea thyrsiflora (Willd. ex Schult. &amp; Schult.f.) Schltdl.[2] ;
-Aechmea wullschlaegeliana Mez[2] ;
-Billbergia mertensii (G.Mey.) Miq.[2] ;
-Bromelia mertensii G.Mey.[2] ;
-Bromelia thyrsifolia Willd. ex Schult. &amp; Schult.f.[2] ;
-Hohenbergia martii Baker[2] ;
-Hohenbergia mertensii (G.Mey.) Baker[2] ;
-Hohenbergia mucroniflora (Hook.) Baker[2] ;
-Hohenbergia spicata (Mart. ex Schult. &amp; Schult.f.) Baker[2] ;
-Hoplophytum mertensii (G.Mey.) Beer[2] ;
-Hoplophytum mucroniflora (Hook.) Beer[2] ;
-Hoplophytum mucroniflorum (Hook.) Beer[2].
+Aechmea humilis Mez ;
+Aechmea mucroniflora Hook. ;
+Aechmea spicata Mart. ex Schult. &amp; Schult.f. ;
+Aechmea thyrsiflora (Willd. ex Schult. &amp; Schult.f.) Schltdl. ;
+Aechmea wullschlaegeliana Mez ;
+Billbergia mertensii (G.Mey.) Miq. ;
+Bromelia mertensii G.Mey. ;
+Bromelia thyrsifolia Willd. ex Schult. &amp; Schult.f. ;
+Hohenbergia martii Baker ;
+Hohenbergia mertensii (G.Mey.) Baker ;
+Hohenbergia mucroniflora (Hook.) Baker ;
+Hohenbergia spicata (Mart. ex Schult. &amp; Schult.f.) Baker ;
+Hoplophytum mertensii (G.Mey.) Beer ;
+Hoplophytum mucroniflora (Hook.) Beer ;
+Hoplophytum mucroniflorum (Hook.) Beer.
 </t>
         </is>
       </c>
@@ -557,9 +571,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce se rencontre dans de nombreux pays d'Amérique du Sud : Brésil, Colombie, Équateur Guyana, Guyane, Pérou et Venezuela[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se rencontre dans de nombreux pays d'Amérique du Sud : Brésil, Colombie, Équateur Guyana, Guyane, Pérou et Venezuela.
 </t>
         </is>
       </c>
@@ -588,9 +604,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est épiphyte[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est épiphyte.
 </t>
         </is>
       </c>
